--- a/data/workforce.xlsx
+++ b/data/workforce.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="5835" tabRatio="702" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="5835" tabRatio="702"/>
   </bookViews>
   <sheets>
     <sheet name="AFECTATION 16-10-2025-" sheetId="105" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -599,9 +599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,9 +632,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,9 +641,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,9 +668,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -797,6 +785,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,801 +1103,778 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H66"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:8" ht="14.25" customHeight="1">
-      <c r="E2" s="53">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A2" s="15">
+        <v>1326</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="49">
         <v>46021</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="14.25" customHeight="1">
-      <c r="E3" s="54" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A3" s="16">
+        <v>2203</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    </row>
+    <row r="4" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B6" s="17">
-        <v>1326</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B7" s="18">
-        <v>2203</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" hidden="1" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="56"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A8" s="5">
+        <v>661</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B9" s="6"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="56"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A9" s="16">
+        <v>967</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="16.5" hidden="1" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="56"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A10" s="16">
+        <v>969</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A11" s="16">
+        <v>974</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B12" s="6">
-        <v>661</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>86</v>
-      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A12" s="16">
+        <v>1036</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B13" s="18">
-        <v>967</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>80</v>
-      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A13" s="16">
+        <v>1192</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B14" s="18">
-        <v>969</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="68" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A14" s="16">
+        <v>1360</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B15" s="18">
-        <v>974</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>77</v>
-      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A15" s="16">
+        <v>1608</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B16" s="18">
-        <v>1036</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>87</v>
-      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A16" s="5">
+        <v>1656</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B17" s="18">
-        <v>1192</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="70" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="16">
+        <v>1677</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="16">
+        <v>1687</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="16">
+        <v>1688</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B18" s="18">
-        <v>1360</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="64" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="16">
+        <v>1703</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="16">
+        <v>1722</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="16">
+        <v>1734</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A23" s="16">
+        <v>1851</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A24" s="16">
+        <v>1900</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B19" s="18">
-        <v>1608</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="57" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="16">
+        <v>1911</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A26" s="16">
+        <v>1970</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="16">
+        <v>2073</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="14">
+        <v>2121</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="16">
+        <v>2137</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B20" s="6">
-        <v>1656</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B21" s="18">
-        <v>1677</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B22" s="18">
-        <v>1687</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B23" s="18">
-        <v>1688</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B24" s="18">
-        <v>1703</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B25" s="18">
-        <v>1722</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="42" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="3" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A31" s="16">
+        <v>2583</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="14">
+        <v>2584</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B26" s="18">
-        <v>1734</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="42" t="s">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A33" s="14">
+        <v>2603</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A34" s="14">
+        <v>2608</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A35" s="14">
+        <v>2609</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A36" s="14">
+        <v>2610</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A37" s="14">
+        <v>2614</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A38" s="16">
+        <v>2616</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A39" s="14">
+        <v>2617</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A40" s="14">
+        <v>2619</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A41" s="14">
+        <v>2622</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A42" s="14">
+        <v>2623</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A43" s="14">
+        <v>2624</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A44" s="14">
+        <v>2627</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B27" s="18">
-        <v>1851</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B28" s="18">
-        <v>1900</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B29" s="18">
-        <v>1911</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B30" s="18">
-        <v>1970</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B31" s="18">
-        <v>2073</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B32" s="15">
-        <v>2121</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B33" s="18">
-        <v>2137</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" ht="3" customHeight="1">
-      <c r="B34" s="10"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B35" s="18">
-        <v>2583</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="63" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A45" s="14">
+        <v>2629</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="21" customHeight="1">
+      <c r="A46" s="14">
+        <v>2630</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B36" s="15">
-        <v>2584</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B37" s="15">
-        <v>2603</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B38" s="15">
-        <v>2608</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B39" s="15">
-        <v>2609</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B40" s="15">
-        <v>2610</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B41" s="15">
-        <v>2614</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B42" s="18">
-        <v>2616</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B43" s="15">
-        <v>2617</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B44" s="15">
-        <v>2619</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B45" s="15">
-        <v>2622</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B46" s="15">
-        <v>2623</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>93</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B47" s="15">
-        <v>2624</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="38"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B48" s="15">
-        <v>2627</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>81</v>
-      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B49" s="15">
-        <v>2629</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="67" t="s">
-        <v>93</v>
-      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="2:7" ht="21" customHeight="1">
-      <c r="B50" s="15">
-        <v>2630</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="67" t="s">
-        <v>92</v>
-      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="2:7">
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:7">
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="2:7">
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="2:7">
+    </row>
+    <row r="54" spans="5:6">
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:7">
+    </row>
+    <row r="55" spans="5:6">
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="2:7">
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="2:7">
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="2:7">
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="1"/>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1914,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1928,592 +1899,591 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1326</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2203</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="15">
+    <row r="4" spans="1:4" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="14">
         <v>1851</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>661</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>967</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>969</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>974</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>1036</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>1192</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>1360</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>1608</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>1656</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>1687</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>1688</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>1703</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>1722</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="52" t="s">
+      <c r="C17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>1734</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>1900</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>1970</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>2073</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="33" t="s">
+      <c r="C21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>2137</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="3.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>2583</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>2584</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>2603</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>2608</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>2609</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>2610</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>2614</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="37" t="s">
+      <c r="C30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <v>2616</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>2617</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>2619</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="37" t="s">
+      <c r="C33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>2622</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>2623</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="37" t="s">
+      <c r="C35" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>2624</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="38" t="s">
+      <c r="C36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <v>2627</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
-      <c r="A38" s="15">
+      <c r="A38" s="14">
         <v>2629</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="38" t="s">
+      <c r="C38" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="14">
         <v>2630</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="40" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A40" s="16">
+        <v>1677</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A41" s="18">
-        <v>1677</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="41" t="s">
+      <c r="A41" s="16">
+        <v>1911</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A42" s="18">
-        <v>1911</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="41" t="s">
+      <c r="A42" s="14">
+        <v>2121</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A43" s="15">
-        <v>2121</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="46" t="s">
+      <c r="E42" s="42" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/workforce.xlsx
+++ b/data/workforce.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SOIR</t>
+          <t>MATIN</t>
         </is>
       </c>
     </row>
